--- a/dora_api/src/template/Template_User.xlsx
+++ b/dora_api/src/template/Template_User.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">TT </t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Ảnh</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Tên người dùng</t>
   </si>
 </sst>
 </file>
@@ -407,24 +413,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="6" width="17.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="40.21875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="66.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,22 +442,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -455,18 +468,21 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
